--- a/app/Plantillas/Validados/PRUEBA_email.xlsx
+++ b/app/Plantillas/Validados/PRUEBA_email.xlsx
@@ -727,13 +727,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{038891A4-0D52-4522-8199-E80BCE1F6E9B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E393F1B4-669C-48A4-B16F-F83469543627}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EF5D486-ECBA-4821-9F4D-D836F97ADB6E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A22772DC-756C-4C51-96AA-3A0A7AFE5D35}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C9ED28-D6E2-4B1C-B284-126B8DF71BE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40CAB7F4-7ADF-48AC-AFB7-8ED0A25C6737}"/>
 </file>